--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533006.016466486</v>
+        <v>1525989.001574775</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10932610.52150617</v>
+        <v>10932610.52150618</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>189.0844662517531</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.702897137449</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>26.53815412835749</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.61413745349994</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>338.2584895448979</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.459364993998</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>95.33023562355984</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>79.47420870022064</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>225.2064798074088</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.02510219382536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.35146980185877</v>
+        <v>0.8576818890146845</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.6823614795156</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>187.9010500435444</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6519788371599</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>125.7541714875889</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.577671927493</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.53347333264928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>110.4431233844926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>9.258144655284926</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.16481274941241</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>823.3126770315976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>823.3126770315976</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>823.3126770315976</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>823.3126770315976</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>816.3671762823941</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>398.403368180581</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1209.912517095719</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1209.912517095719</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1209.912517095719</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.912517095719</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E5" t="n">
-        <v>1209.912517095719</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>94.67260217304374</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.181128500977</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4898,28 +4898,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
@@ -5050,22 +5050,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.3840174432676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
         <v>244.1070389581962</v>
@@ -5187,16 +5187,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.010087623274</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.9054447954967</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="C19" t="n">
-        <v>130.9054447954967</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="D19" t="n">
-        <v>130.9054447954967</v>
+        <v>244.9733843006353</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954967</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954967</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954967</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="20">
@@ -5746,43 +5746,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.3450129705744</v>
+        <v>665.685973528613</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>496.7497906007061</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>998.122116587256</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>708.9934778008142</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>708.9934778008142</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>708.9934778008142</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X22" t="n">
-        <v>708.9934778008142</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.9934778008142</v>
+        <v>665.685973528613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.1079791745888</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>221.1079791745888</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>221.1079791745888</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>221.1079791745888</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>221.1079791745888</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.1079791745888</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.499100520942</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>377.6878657662453</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1431.710741939065</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1142.582103152623</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>887.897614946736</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>598.4804449097754</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>598.4804449097754</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>377.6878657662453</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,49 +7159,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.7185717878253</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>505.7823888599185</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>355.6657494475827</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1289.64459920549</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>1000.515960419048</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878253</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X40" t="n">
-        <v>674.7185717878253</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.7185717878253</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7845,13 +7845,13 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>420.3226148324571</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.3330639344398</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.83804904622852</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7151863772038</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>87.77261239840719</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23472,10 +23472,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>26.93116351641919</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>176.5595511582694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>113.0824928447104</v>
+        <v>145.5762807575545</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>44.93311153869675</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>33.6465110148448</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>43.84158962621764</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>92.83048186450588</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.2167382934144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.03780109071936</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>48.00368395686547</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.43087907114351</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>35.99083926207658</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>212.2894164031043</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.32875571396518</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.418698365</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="J2" t="n">
+        <v>449683.4186983651</v>
+      </c>
+      <c r="K2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572136</v>
+        <v>-357502.8978572135</v>
       </c>
       <c r="C6" t="n">
         <v>232464.9813573309</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573309</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486868</v>
+        <v>-183484.2046084082</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282097</v>
+        <v>341675.8318684875</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356166</v>
+        <v>165252.6126758948</v>
       </c>
       <c r="K6" t="n">
-        <v>342650.4231282097</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="L6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="M6" t="n">
-        <v>207849.4078943724</v>
+        <v>206874.8166346507</v>
       </c>
       <c r="N6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="O6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684878</v>
       </c>
       <c r="P6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>134.8383065126041</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1731486042623942</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>125.3931621165038</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>10.74592769735781</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>150.531401496519</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>44.47535211858263</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>130.7785736620556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>130.3794197654773</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,16 +35737,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>222.9314639777532</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8086013087286</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1525989.001574775</v>
+        <v>1530928.264423807</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10932610.52150618</v>
+        <v>10932610.52150617</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>354.752216257426</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>126.1512633158929</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.60408762095418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>173.9313784350749</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>26.53815412835749</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.1607733806431</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.2584895448979</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>126.6526411744826</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2064798074088</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>162.7864358512046</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8576818890146845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>103.6823614795156</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>146.1474114830843</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>125.7541714875889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>103.577671927493</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>112.1509149027626</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>15.59458547084342</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>9.258144655284926</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>169.8277167599791</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2465.942913862886</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1490.978909181595</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>891.4467595608955</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>505.6585069626513</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>94.67260217304374</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>80.74919811163464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>80.74919811163464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>709.5665374816297</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>709.5665374816297</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.5665374816297</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1705.877315537684</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1336.914798597272</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>978.649099990522</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>592.8608473922777</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>181.8749426026702</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4886,16 +4886,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
         <v>125.4002551675024</v>
@@ -5120,16 +5120,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028583</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>982.3063390367042</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>692.8891689997437</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X13" t="n">
-        <v>464.8996181017263</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.9733843006353</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C19" t="n">
-        <v>244.9733843006353</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D19" t="n">
-        <v>244.9733843006353</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
         <v>244.1070389581962</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.9733843006353</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5779,10 +5779,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653858</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.685973528613</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>496.7497906007061</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655735</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W22" t="n">
-        <v>665.685973528613</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X22" t="n">
-        <v>665.685973528613</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.685973528613</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>879.2482765610114</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C25" t="n">
-        <v>710.3120936331045</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D25" t="n">
-        <v>560.1954542207687</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.92115703528</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y25" t="n">
-        <v>1060.896741391251</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,16 +6229,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,31 +6451,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.9294177607301</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y31" t="n">
-        <v>699.5778825909698</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6949,16 +6949,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>216.9038434870658</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>216.9038434870658</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>216.9038434870658</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>216.9038434870658</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870658</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1289.64459920549</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1000.515960419048</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>745.8314722131613</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>745.8314722131613</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>745.8314722131613</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,16 +7414,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,34 +7639,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.4116509503166</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229593</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>26.93116351641919</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>123.7365624853864</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>114.1490392373288</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E19" t="n">
-        <v>145.5762807575545</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>44.93311153869675</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>140.0899409154931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>92.83048186450588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>45.03780109071936</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>174.3720834338284</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>48.00368395686547</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>212.2894164031043</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>10.00426342195823</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983652</v>
@@ -26331,10 +26331,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983651</v>
@@ -26343,16 +26343,16 @@
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983653</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26481,37 +26481,37 @@
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572135</v>
+        <v>-357502.8978572137</v>
       </c>
       <c r="C6" t="n">
+        <v>232464.9813573308</v>
+      </c>
+      <c r="D6" t="n">
         <v>232464.9813573309</v>
       </c>
-      <c r="D6" t="n">
-        <v>232464.9813573308</v>
-      </c>
       <c r="E6" t="n">
-        <v>-183484.2046084082</v>
+        <v>-182607.0724746588</v>
       </c>
       <c r="F6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022373</v>
       </c>
       <c r="H6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="I6" t="n">
-        <v>341675.8318684875</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="J6" t="n">
-        <v>165252.6126758948</v>
+        <v>166129.7448096443</v>
       </c>
       <c r="K6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="L6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="M6" t="n">
-        <v>206874.8166346507</v>
+        <v>207751.9487684004</v>
       </c>
       <c r="N6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="O6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022375</v>
       </c>
       <c r="P6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022374</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>10.52067551358152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.7791067563689</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.2278925609831</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>44.65327491701987</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>125.3931621165038</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>68.08019533676986</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.74592769735781</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.47535211858263</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>287.1315288463123</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060687</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>483.6693559063409</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734254</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
